--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57324649-8A08-4E18-9E9F-D4FA7D96B28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9217F-9A87-49DE-AC8B-1967C9A21EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
     <sheet name="Belgium" sheetId="17" r:id="rId2"/>
     <sheet name="Czech" sheetId="18" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2353</t>
   </si>
 </sst>
 </file>
@@ -510,7 +517,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04AAA7F-4EF2-4B5E-A118-CD6D5F8FD878}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,4 +807,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4319478B-88F4-4D01-BE8B-B534880F09E7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9217F-9A87-49DE-AC8B-1967C9A21EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C908F-5972-4EF9-9534-4EE2BF6B5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
     <sheet name="Belgium" sheetId="17" r:id="rId2"/>
     <sheet name="Czech" sheetId="18" r:id="rId3"/>
     <sheet name="Swiss" sheetId="19" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <t>NGC-3476/T2353</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2428</t>
   </si>
 </sst>
 </file>
@@ -813,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4319478B-88F4-4D01-BE8B-B534880F09E7}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,4 +911,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C79049-8C3F-402A-B283-94ED99231055}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C908F-5972-4EF9-9534-4EE2BF6B5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BBDB5-0489-4D93-8711-7D81358F3BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="18" r:id="rId3"/>
     <sheet name="Swiss" sheetId="19" r:id="rId4"/>
     <sheet name="Portugal" sheetId="20" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>NGC-3479/T2428</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3218</t>
   </si>
 </sst>
 </file>
@@ -524,7 +531,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C79049-8C3F-402A-B283-94ED99231055}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,5 +1013,108 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6F756-D529-4D98-81F5-17E972CFE024}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BBDB5-0489-4D93-8711-7D81358F3BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0279AF-A018-4597-BD18-871EF04E4CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="19" r:id="rId4"/>
     <sheet name="Portugal" sheetId="20" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="21" r:id="rId6"/>
+    <sheet name="Italy" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>NGC-2930/T3218</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2165</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6F756-D529-4D98-81F5-17E972CFE024}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,4 +1124,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7700F-DAD5-4B22-80F1-83C64E312E5C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0279AF-A018-4597-BD18-871EF04E4CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875DD68-C41E-4BFC-944C-9A3226AF9E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="20" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="21" r:id="rId6"/>
     <sheet name="Italy" sheetId="22" r:id="rId7"/>
+    <sheet name="Spain" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>NGC-3145/T2165</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2043</t>
   </si>
 </sst>
 </file>
@@ -1130,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7700F-DAD5-4B22-80F1-83C64E312E5C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,4 +1228,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350AA5E-7A7A-419A-A183-681D89BF9BEE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875DD68-C41E-4BFC-944C-9A3226AF9E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83479FF4-249C-4D29-928C-8BE4DF2484E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="21" r:id="rId6"/>
     <sheet name="Italy" sheetId="22" r:id="rId7"/>
     <sheet name="Spain" sheetId="23" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="24" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>NGC-3103/T2043</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3297</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350AA5E-7A7A-419A-A183-681D89BF9BEE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,4 +1331,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5A4A7-82BD-42E4-9E4F-A0740E8B3AFD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83479FF4-249C-4D29-928C-8BE4DF2484E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC25B04-4CC8-4104-A3F3-3548D36A118A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="22" r:id="rId7"/>
     <sheet name="Spain" sheetId="23" r:id="rId8"/>
     <sheet name="Turkey" sheetId="24" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="25" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t>NGC-3191/T3297</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2424</t>
   </si>
 </sst>
 </file>
@@ -649,6 +656,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA3081-9DC0-4435-9B29-6FA06279AAE5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04AAA7F-4EF2-4B5E-A118-CD6D5F8FD878}">
   <dimension ref="A1:D10"/>
@@ -1337,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5A4A7-82BD-42E4-9E4F-A0740E8B3AFD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC25B04-4CC8-4104-A3F3-3548D36A118A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E50B6-7E95-48FC-871B-29DAD744E539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="23" r:id="rId8"/>
     <sheet name="Turkey" sheetId="24" r:id="rId9"/>
     <sheet name="Croatia" sheetId="25" r:id="rId10"/>
+    <sheet name="Greece" sheetId="26" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>NGC-3139/T2424</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3163</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -660,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA3081-9DC0-4435-9B29-6FA06279AAE5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +714,102 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A8986-D124-4624-BA1A-E0175DFD62A5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E50B6-7E95-48FC-871B-29DAD744E539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA032099-82B8-4420-87FE-8D2D7600FE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="24" r:id="rId9"/>
     <sheet name="Croatia" sheetId="25" r:id="rId10"/>
     <sheet name="Greece" sheetId="26" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="27" r:id="rId12"/>
+    <sheet name="Austria" sheetId="28" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="29" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +145,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2176</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -763,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A8986-D124-4624-BA1A-E0175DFD62A5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -810,6 +831,297 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE258C-33F3-429D-AF41-5D4FBF00E122}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBA99D-6F06-45C1-97CC-37E10FF3AD6D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6123C5E9-FF06-4CA2-A792-C62E0F366255}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA032099-82B8-4420-87FE-8D2D7600FE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEC1E3-6E45-45F8-8ACD-B713D2FAE81C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="27" r:id="rId12"/>
     <sheet name="Austria" sheetId="28" r:id="rId13"/>
     <sheet name="Denmark" sheetId="29" r:id="rId14"/>
+    <sheet name="Russia" sheetId="31" r:id="rId15"/>
+    <sheet name="Finland" sheetId="32" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="33" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -163,6 +166,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T3297</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3006</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -880,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE258C-33F3-429D-AF41-5D4FBF00E122}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1167,6 +1188,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574DEF7-1551-42DA-9253-AF176266F4F4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005C0A1E-CE59-4107-A1A9-114998BE4FA2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7311-239C-4A82-A908-C5C0BE25E76E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04AAA7F-4EF2-4B5E-A118-CD6D5F8FD878}">
   <dimension ref="A1:D10"/>

--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEC1E3-6E45-45F8-8ACD-B713D2FAE81C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8DE8A-10FE-4891-9C9F-3A8DFFA59F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="31" r:id="rId15"/>
     <sheet name="Finland" sheetId="32" r:id="rId16"/>
     <sheet name="Hungary" sheetId="33" r:id="rId17"/>
+    <sheet name="Norway" sheetId="34" r:id="rId18"/>
+    <sheet name="Poland" sheetId="35" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -184,6 +186,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3100</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7311-239C-4A82-A908-C5C0BE25E76E}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1438,6 +1452,198 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB1A6F-F262-4259-9BBC-693509043484}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84B3F38-05F2-4ED7-B9A9-1D313434A19F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_SlotCards.xlsx
+++ b/Test Data/Gallery_SlotCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8DE8A-10FE-4891-9C9F-3A8DFFA59F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D168BF-2AAD-45FA-9591-56707F90A3DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="16" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="33" r:id="rId17"/>
     <sheet name="Norway" sheetId="34" r:id="rId18"/>
     <sheet name="Poland" sheetId="35" r:id="rId19"/>
+    <sheet name="UK" sheetId="36" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3339</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB1A6F-F262-4259-9BBC-693509043484}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1777,6 +1784,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511E32F2-5B47-4190-8D80-67BBBA63BA2E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5C2494-788F-4B75-B46F-73A905E7AAD7}">
   <dimension ref="A1:D11"/>
